--- a/焦炭/eta/焦化厂利润_合并数据.xlsx
+++ b/焦炭/eta/焦化厂利润_合并数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C721"/>
+  <dimension ref="A1:C723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,282 +453,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-229.5</v>
+        <v>-177.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>-207.5</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>-219.3</v>
+        <v>-134.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-259.2</v>
+        <v>-136.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-275.5</v>
+        <v>-187.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-280.8</v>
+        <v>-207.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>-278.3</v>
+        <v>-194.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>-258.4</v>
+        <v>-206.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>-263.4</v>
+        <v>-205.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>-224.8</v>
+        <v>-167.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>-231.3</v>
+        <v>-174.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>-282.4</v>
+        <v>-155.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>-216.9</v>
+        <v>-143.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>-210.8</v>
+        <v>-183.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>-267.6</v>
+        <v>-149.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>-213.7</v>
+        <v>-133.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>-195.5</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-228.6</v>
+        <v>-81.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>-217.2</v>
+        <v>-121.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-218.3</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-218.3</v>
+        <v>-230.2</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-218.3</v>
+        <v>-230.2</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-238.3</v>
+        <v>-270.2</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-258.3</v>
+        <v>-270.2</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-228.3</v>
+        <v>-238.3</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -739,40 +739,40 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-227.5</v>
+        <v>-228.3</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-227.5</v>
+        <v>-258.3</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-237.5</v>
+        <v>-227.5</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -783,62 +783,62 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-257.5</v>
+        <v>-237.5</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-247.5</v>
+        <v>-227.5</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-267.5</v>
+        <v>-257.5</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-289.8</v>
+        <v>-247.5</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-289.8</v>
+        <v>-267.5</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -849,7 +849,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -860,293 +860,293 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-259.8</v>
+        <v>-289.8</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-289.4</v>
+        <v>-289.8</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-216.4</v>
+        <v>-259.8</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-196.4</v>
+        <v>-289.4</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-156.4</v>
+        <v>-216.4</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-156.4</v>
+        <v>-196.4</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-176.4</v>
+        <v>-156.4</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-93.40000000000001</v>
+        <v>-156.4</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-143.4</v>
+        <v>-176.4</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-183.4</v>
+        <v>-93.40000000000001</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-153.4</v>
+        <v>-143.4</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-153.4</v>
+        <v>-183.4</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-143.4</v>
+        <v>-153.4</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-133.4</v>
+        <v>-153.4</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-153.4</v>
+        <v>-143.4</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-163.8</v>
+        <v>-133.4</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-154.5</v>
+        <v>-153.4</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-154.5</v>
+        <v>-163.8</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-175.3</v>
+        <v>-154.5</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-145.3</v>
+        <v>-154.5</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-145.3</v>
+        <v>-175.3</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-135.3</v>
+        <v>-145.3</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-135.3</v>
+        <v>-145.3</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-145.3</v>
+        <v>-135.3</v>
       </c>
       <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-155.3</v>
+        <v>-135.3</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-155.3</v>
+        <v>-145.3</v>
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1157,7 +1157,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1168,7 +1168,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1179,249 +1179,249 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-165.3</v>
+        <v>-155.3</v>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-165.3</v>
+        <v>-155.3</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-145.3</v>
+        <v>-165.3</v>
       </c>
       <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-145.3</v>
+        <v>-165.3</v>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-165.3</v>
+        <v>-145.3</v>
       </c>
       <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-185.3</v>
+        <v>-145.3</v>
       </c>
       <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-216.4</v>
+        <v>-165.3</v>
       </c>
       <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-236.4</v>
+        <v>-185.3</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-256.4</v>
+        <v>-216.4</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-276.4</v>
+        <v>-236.4</v>
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-276.4</v>
+        <v>-256.4</v>
       </c>
       <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-256.4</v>
+        <v>-276.4</v>
       </c>
       <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-184.5</v>
+        <v>-276.4</v>
       </c>
       <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-214.5</v>
+        <v>-256.4</v>
       </c>
       <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-204.5</v>
+        <v>-184.5</v>
       </c>
       <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-174.5</v>
+        <v>-214.5</v>
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-132.6</v>
+        <v>-204.5</v>
       </c>
       <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-151.9</v>
+        <v>-174.5</v>
       </c>
       <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-89.59999999999999</v>
+        <v>-132.6</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-108.9</v>
+        <v>-151.9</v>
       </c>
       <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-178.9</v>
+        <v>-89.59999999999999</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-178.9</v>
+        <v>-108.9</v>
       </c>
       <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1432,139 +1432,139 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-137.4</v>
+        <v>-178.9</v>
       </c>
       <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-95.90000000000001</v>
+        <v>-178.9</v>
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-75.09999999999999</v>
+        <v>-137.4</v>
       </c>
       <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-85.09999999999999</v>
+        <v>-95.90000000000001</v>
       </c>
       <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-115.1</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-124.4</v>
+        <v>-85.09999999999999</v>
       </c>
       <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-114.4</v>
+        <v>-115.1</v>
       </c>
       <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-134.4</v>
+        <v>-124.4</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-124.4</v>
+        <v>-114.4</v>
       </c>
       <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-154.4</v>
+        <v>-134.4</v>
       </c>
       <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-144</v>
+        <v>-124.4</v>
       </c>
       <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-154</v>
+        <v>-154.4</v>
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1575,40 +1575,40 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-174</v>
+        <v>-154</v>
       </c>
       <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-174</v>
+        <v>-144</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-164</v>
+        <v>-174</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1619,7 +1619,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1630,62 +1630,62 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-164</v>
+        <v>-174</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-144</v>
+        <v>-164</v>
       </c>
       <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-144</v>
+        <v>-164</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-134</v>
+        <v>-144</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-134</v>
+        <v>-144</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1696,7 +1696,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1707,7 +1707,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1718,51 +1718,51 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-154.4</v>
+        <v>-134</v>
       </c>
       <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-154.4</v>
+        <v>-134</v>
       </c>
       <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-144.4</v>
+        <v>-154.4</v>
       </c>
       <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-134.4</v>
+        <v>-154.4</v>
       </c>
       <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1773,260 +1773,260 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-104.4</v>
+        <v>-134.4</v>
       </c>
       <c r="C122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-125.1</v>
+        <v>-144.4</v>
       </c>
       <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-115.1</v>
+        <v>-104.4</v>
       </c>
       <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-115.1</v>
+        <v>-125.1</v>
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-126.2</v>
+        <v>-115.1</v>
       </c>
       <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-96.2</v>
+        <v>-115.1</v>
       </c>
       <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-86.2</v>
+        <v>-126.2</v>
       </c>
       <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-106.2</v>
+        <v>-96.2</v>
       </c>
       <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-96.2</v>
+        <v>-86.2</v>
       </c>
       <c r="C130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-107</v>
+        <v>-106.2</v>
       </c>
       <c r="C131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-107</v>
+        <v>-96.2</v>
       </c>
       <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-97</v>
+        <v>-107</v>
       </c>
       <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-97</v>
+        <v>-107</v>
       </c>
       <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-117.7</v>
+        <v>-97</v>
       </c>
       <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-77.7</v>
+        <v>-97</v>
       </c>
       <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-107.7</v>
+        <v>-117.7</v>
       </c>
       <c r="C137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-108.1</v>
+        <v>-77.7</v>
       </c>
       <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-118.5</v>
+        <v>-107.7</v>
       </c>
       <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-118.5</v>
+        <v>-108.1</v>
       </c>
       <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-108.9</v>
+        <v>-118.5</v>
       </c>
       <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-108.9</v>
+        <v>-118.5</v>
       </c>
       <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-98.90000000000001</v>
+        <v>-108.9</v>
       </c>
       <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-98.90000000000001</v>
+        <v>-108.9</v>
       </c>
       <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2037,7 +2037,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2048,51 +2048,51 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-88.90000000000001</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-140</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-140</v>
+        <v>-88.90000000000001</v>
       </c>
       <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-130</v>
+        <v>-140</v>
       </c>
       <c r="C150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2103,18 +2103,18 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-140</v>
+        <v>-130</v>
       </c>
       <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2125,40 +2125,40 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-129.6</v>
+        <v>-140</v>
       </c>
       <c r="C154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-139.6</v>
+        <v>-140</v>
       </c>
       <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-139.6</v>
+        <v>-129.6</v>
       </c>
       <c r="C156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2169,128 +2169,128 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-118.9</v>
+        <v>-139.6</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-108.5</v>
+        <v>-139.6</v>
       </c>
       <c r="C159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-68.5</v>
+        <v>-118.9</v>
       </c>
       <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-68.5</v>
+        <v>-108.5</v>
       </c>
       <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-58.1</v>
+        <v>-68.5</v>
       </c>
       <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-78.09999999999999</v>
+        <v>-68.5</v>
       </c>
       <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-78.09999999999999</v>
+        <v>-58.1</v>
       </c>
       <c r="C164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-57.7</v>
+        <v>-78.09999999999999</v>
       </c>
       <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-57.7</v>
+        <v>-78.09999999999999</v>
       </c>
       <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-67.7</v>
+        <v>-57.7</v>
       </c>
       <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-47.7</v>
+        <v>-57.7</v>
       </c>
       <c r="C168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2301,183 +2301,183 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-77.7</v>
+        <v>-47.7</v>
       </c>
       <c r="C170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-57.7</v>
+        <v>-67.7</v>
       </c>
       <c r="C171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-57.7</v>
+        <v>-77.7</v>
       </c>
       <c r="C172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-68.09999999999999</v>
+        <v>-57.7</v>
       </c>
       <c r="C173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-58.1</v>
+        <v>-57.7</v>
       </c>
       <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-68.5</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="C175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-68.5</v>
+        <v>-58.1</v>
       </c>
       <c r="C176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-78.90000000000001</v>
+        <v>-68.5</v>
       </c>
       <c r="C177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-78.90000000000001</v>
+        <v>-68.5</v>
       </c>
       <c r="C178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-68.90000000000001</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="C179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-38.9</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-38.9</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="C181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-59.6</v>
+        <v>-38.9</v>
       </c>
       <c r="C182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-49.6</v>
+        <v>-38.9</v>
       </c>
       <c r="C183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-39.6</v>
+        <v>-59.6</v>
       </c>
       <c r="C184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-39.6</v>
+        <v>-49.6</v>
       </c>
       <c r="C185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2488,106 +2488,106 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-29.6</v>
+        <v>-39.6</v>
       </c>
       <c r="C187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.4</v>
+        <v>-39.6</v>
       </c>
       <c r="C188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.4</v>
+        <v>-29.6</v>
       </c>
       <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-31.1</v>
+        <v>0.4</v>
       </c>
       <c r="C190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-51.1</v>
+        <v>-0.4</v>
       </c>
       <c r="C191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-41.1</v>
+        <v>-31.1</v>
       </c>
       <c r="C192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-61.9</v>
+        <v>-51.1</v>
       </c>
       <c r="C193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-42.6</v>
+        <v>-41.1</v>
       </c>
       <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-42.6</v>
+        <v>-61.9</v>
       </c>
       <c r="C195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2598,73 +2598,73 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-32.6</v>
+        <v>-42.6</v>
       </c>
       <c r="C197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-32.6</v>
+        <v>-42.6</v>
       </c>
       <c r="C198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-12.6</v>
+        <v>-32.6</v>
       </c>
       <c r="C199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-12.6</v>
+        <v>-32.6</v>
       </c>
       <c r="C200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-22.6</v>
+        <v>-12.6</v>
       </c>
       <c r="C201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-22.6</v>
+        <v>-12.6</v>
       </c>
       <c r="C202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2675,7 +2675,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2686,7 +2686,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2697,29 +2697,29 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-12.6</v>
+        <v>-22.6</v>
       </c>
       <c r="C206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-12.6</v>
+        <v>-22.6</v>
       </c>
       <c r="C207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2730,62 +2730,62 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-2.6</v>
+        <v>-12.6</v>
       </c>
       <c r="C209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>17.4</v>
+        <v>-12.6</v>
       </c>
       <c r="C210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>17.4</v>
+        <v>-2.6</v>
       </c>
       <c r="C211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>7.4</v>
+        <v>17.4</v>
       </c>
       <c r="C212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7.4</v>
+        <v>17.4</v>
       </c>
       <c r="C213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2796,73 +2796,73 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="C216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>16.6</v>
+        <v>6.6</v>
       </c>
       <c r="C217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>16.6</v>
+        <v>6.6</v>
       </c>
       <c r="C218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>36.6</v>
+        <v>16.6</v>
       </c>
       <c r="C219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>36.6</v>
+        <v>16.6</v>
       </c>
       <c r="C220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2873,73 +2873,73 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>25.5</v>
+        <v>36.6</v>
       </c>
       <c r="C223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>15.5</v>
+        <v>36.2</v>
       </c>
       <c r="C224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>15.5</v>
+        <v>25.5</v>
       </c>
       <c r="C225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-36.4</v>
+        <v>15.5</v>
       </c>
       <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-36.4</v>
+        <v>15.5</v>
       </c>
       <c r="C227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2950,95 +2950,95 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-77.90000000000001</v>
+        <v>-36.4</v>
       </c>
       <c r="C229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-67.90000000000001</v>
+        <v>-36.4</v>
       </c>
       <c r="C230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-68.3</v>
+        <v>-77.90000000000001</v>
       </c>
       <c r="C231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-38.3</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="C232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-78.3</v>
+        <v>-68.3</v>
       </c>
       <c r="C233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-68.3</v>
+        <v>-38.3</v>
       </c>
       <c r="C234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-48.6</v>
+        <v>-78.3</v>
       </c>
       <c r="C235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-48.6</v>
+        <v>-68.3</v>
       </c>
       <c r="C236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3049,29 +3049,29 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-78.59999999999999</v>
+        <v>-48.6</v>
       </c>
       <c r="C238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-78.59999999999999</v>
+        <v>-48.6</v>
       </c>
       <c r="C239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3082,40 +3082,40 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-48.6</v>
+        <v>-78.59999999999999</v>
       </c>
       <c r="C241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-38.6</v>
+        <v>-78.59999999999999</v>
       </c>
       <c r="C242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-38.6</v>
+        <v>-48.6</v>
       </c>
       <c r="C243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3126,40 +3126,40 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-48.6</v>
+        <v>-38.6</v>
       </c>
       <c r="C245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-49.4</v>
+        <v>-38.6</v>
       </c>
       <c r="C246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-49.4</v>
+        <v>-48.6</v>
       </c>
       <c r="C247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3170,29 +3170,29 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-69.40000000000001</v>
+        <v>-49.4</v>
       </c>
       <c r="C249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-69.40000000000001</v>
+        <v>-49.4</v>
       </c>
       <c r="C250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3203,150 +3203,150 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-70.2</v>
+        <v>-69.40000000000001</v>
       </c>
       <c r="C252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-101.3</v>
+        <v>-69.40000000000001</v>
       </c>
       <c r="C253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-81.3</v>
+        <v>-70.2</v>
       </c>
       <c r="C254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-81.3</v>
+        <v>-101.3</v>
       </c>
       <c r="C255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-71.3</v>
+        <v>-81.3</v>
       </c>
       <c r="C256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-71.3</v>
+        <v>-81.3</v>
       </c>
       <c r="C257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-61.3</v>
+        <v>-71.3</v>
       </c>
       <c r="C258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-42</v>
+        <v>-71.3</v>
       </c>
       <c r="C259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-42</v>
+        <v>-61.3</v>
       </c>
       <c r="C260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-52</v>
+        <v>-42</v>
       </c>
       <c r="C261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-2</v>
+        <v>-42</v>
       </c>
       <c r="C262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-22</v>
+        <v>-52</v>
       </c>
       <c r="C263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-22</v>
+        <v>-2</v>
       </c>
       <c r="C264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3357,172 +3357,172 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-63.9</v>
+        <v>-22</v>
       </c>
       <c r="C266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-53.9</v>
+        <v>-22</v>
       </c>
       <c r="C267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-75</v>
+        <v>-63.9</v>
       </c>
       <c r="C268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-135</v>
+        <v>-53.9</v>
       </c>
       <c r="C269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-135</v>
+        <v>-75</v>
       </c>
       <c r="C270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-125</v>
+        <v>-135</v>
       </c>
       <c r="C271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-105</v>
+        <v>-135</v>
       </c>
       <c r="C272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-115.8</v>
+        <v>-125</v>
       </c>
       <c r="C273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-137.7</v>
+        <v>-105</v>
       </c>
       <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-127.7</v>
+        <v>-115.8</v>
       </c>
       <c r="C275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-127.7</v>
+        <v>-137.7</v>
       </c>
       <c r="C276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-97.7</v>
+        <v>-127.7</v>
       </c>
       <c r="C277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-97.7</v>
+        <v>-127.7</v>
       </c>
       <c r="C278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-117.7</v>
+        <v>-97.7</v>
       </c>
       <c r="C279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-147.7</v>
+        <v>-97.7</v>
       </c>
       <c r="C280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3533,205 +3533,205 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-87.7</v>
+        <v>-147.7</v>
       </c>
       <c r="C282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-67.7</v>
+        <v>-117.7</v>
       </c>
       <c r="C283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-55</v>
+        <v>-87.7</v>
       </c>
       <c r="C284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-115</v>
+        <v>-67.7</v>
       </c>
       <c r="C285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-155</v>
+        <v>-55</v>
       </c>
       <c r="C286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/29</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-195</v>
+        <v>-115</v>
       </c>
       <c r="C287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-205</v>
+        <v>-155</v>
       </c>
       <c r="C288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-215</v>
+        <v>-195</v>
       </c>
       <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-225</v>
+        <v>-205</v>
       </c>
       <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-153.2</v>
+        <v>-215</v>
       </c>
       <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-163.2</v>
+        <v>-225</v>
       </c>
       <c r="C292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-173.2</v>
+        <v>-153.2</v>
       </c>
       <c r="C293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-193.2</v>
+        <v>-163.2</v>
       </c>
       <c r="C294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-172.4</v>
+        <v>-173.2</v>
       </c>
       <c r="C295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-172.4</v>
+        <v>-193.2</v>
       </c>
       <c r="C296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-233.9</v>
+        <v>-172.4</v>
       </c>
       <c r="C297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-243.9</v>
+        <v>-172.4</v>
       </c>
       <c r="C298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-243.9</v>
+        <v>-233.9</v>
       </c>
       <c r="C299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3742,73 +3742,73 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-213.9</v>
+        <v>-243.9</v>
       </c>
       <c r="C301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-163.9</v>
+        <v>-243.9</v>
       </c>
       <c r="C302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-143.9</v>
+        <v>-213.9</v>
       </c>
       <c r="C303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-123.2</v>
+        <v>-163.9</v>
       </c>
       <c r="C304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-103.2</v>
+        <v>-143.9</v>
       </c>
       <c r="C305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-103.2</v>
+        <v>-123.2</v>
       </c>
       <c r="C306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3819,106 +3819,106 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/08/29</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-72</v>
+        <v>-103.2</v>
       </c>
       <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/08/28</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-92</v>
+        <v>-103.2</v>
       </c>
       <c r="C309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/08/27</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-153.9</v>
+        <v>-72</v>
       </c>
       <c r="C310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-143.9</v>
+        <v>-92</v>
       </c>
       <c r="C311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-123.9</v>
+        <v>-153.9</v>
       </c>
       <c r="C312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-163.9</v>
+        <v>-143.9</v>
       </c>
       <c r="C313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-215.8</v>
+        <v>-123.9</v>
       </c>
       <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-195.8</v>
+        <v>-163.9</v>
       </c>
       <c r="C315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-195.8</v>
+        <v>-215.8</v>
       </c>
       <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3929,7 +3929,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/15</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3940,84 +3940,84 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-175.8</v>
+        <v>-195.8</v>
       </c>
       <c r="C319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/13</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-187.7</v>
+        <v>-195.8</v>
       </c>
       <c r="C320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/08/12</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-187.7</v>
+        <v>-175.8</v>
       </c>
       <c r="C321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-157.7</v>
+        <v>-187.7</v>
       </c>
       <c r="C322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-157.7</v>
+        <v>-187.7</v>
       </c>
       <c r="C323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-189.5</v>
+        <v>-157.7</v>
       </c>
       <c r="C324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-189.5</v>
+        <v>-157.7</v>
       </c>
       <c r="C325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4028,183 +4028,183 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-169.5</v>
+        <v>-189.5</v>
       </c>
       <c r="C327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-190.3</v>
+        <v>-189.5</v>
       </c>
       <c r="C328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-201.4</v>
+        <v>-169.5</v>
       </c>
       <c r="C329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-191.4</v>
+        <v>-190.3</v>
       </c>
       <c r="C330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-212.2</v>
+        <v>-201.4</v>
       </c>
       <c r="C331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-182.2</v>
+        <v>-191.4</v>
       </c>
       <c r="C332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-162.2</v>
+        <v>-212.2</v>
       </c>
       <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-162.2</v>
+        <v>-182.2</v>
       </c>
       <c r="C334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-112.2</v>
+        <v>-162.2</v>
       </c>
       <c r="C335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-112.2</v>
+        <v>-162.2</v>
       </c>
       <c r="C336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-92.2</v>
+        <v>-112.2</v>
       </c>
       <c r="C337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>-62.2</v>
+        <v>-112.2</v>
       </c>
       <c r="C338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-62.2</v>
+        <v>-92.2</v>
       </c>
       <c r="C339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>-102.2</v>
+        <v>-62.2</v>
       </c>
       <c r="C340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-102.2</v>
+        <v>-62.2</v>
       </c>
       <c r="C341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-112.2</v>
+        <v>-102.2</v>
       </c>
       <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4215,95 +4215,95 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-102.2</v>
+        <v>-112.2</v>
       </c>
       <c r="C344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-62.2</v>
+        <v>-102.2</v>
       </c>
       <c r="C345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-32.2</v>
+        <v>-102.2</v>
       </c>
       <c r="C346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-42.2</v>
+        <v>-62.2</v>
       </c>
       <c r="C347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-51.8</v>
+        <v>-32.2</v>
       </c>
       <c r="C348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-71.8</v>
+        <v>-42.2</v>
       </c>
       <c r="C349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-121.4</v>
+        <v>-51.8</v>
       </c>
       <c r="C350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-121.4</v>
+        <v>-71.8</v>
       </c>
       <c r="C351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -4314,73 +4314,73 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>-171.4</v>
+        <v>-121.4</v>
       </c>
       <c r="C353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-161.4</v>
+        <v>-121.4</v>
       </c>
       <c r="C354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>-131.4</v>
+        <v>-171.4</v>
       </c>
       <c r="C355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024/06/20</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-101.4</v>
+        <v>-161.4</v>
       </c>
       <c r="C356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-121.4</v>
+        <v>-131.4</v>
       </c>
       <c r="C357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/20</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-111.4</v>
+        <v>-101.4</v>
       </c>
       <c r="C358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4391,62 +4391,62 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>-91.40000000000001</v>
+        <v>-111.4</v>
       </c>
       <c r="C360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-141.4</v>
+        <v>-121.4</v>
       </c>
       <c r="C361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-193.3</v>
+        <v>-91.40000000000001</v>
       </c>
       <c r="C362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-153.3</v>
+        <v>-141.4</v>
       </c>
       <c r="C363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-153.3</v>
+        <v>-193.3</v>
       </c>
       <c r="C364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4457,73 +4457,73 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-195.2</v>
+        <v>-153.3</v>
       </c>
       <c r="C366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-165.2</v>
+        <v>-153.3</v>
       </c>
       <c r="C367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-155.2</v>
+        <v>-195.2</v>
       </c>
       <c r="C368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-155.2</v>
+        <v>-165.2</v>
       </c>
       <c r="C369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-145.2</v>
+        <v>-155.2</v>
       </c>
       <c r="C370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>-145.2</v>
+        <v>-155.2</v>
       </c>
       <c r="C371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4534,7 +4534,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4545,7 +4545,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4556,7 +4556,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4567,205 +4567,205 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-123.3</v>
+        <v>-145.2</v>
       </c>
       <c r="C376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024/05/21</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-173.3</v>
+        <v>-145.2</v>
       </c>
       <c r="C377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-163.3</v>
+        <v>-123.3</v>
       </c>
       <c r="C378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/21</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-163.3</v>
+        <v>-173.3</v>
       </c>
       <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-245.2</v>
+        <v>-163.3</v>
       </c>
       <c r="C380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-245.2</v>
+        <v>-163.3</v>
       </c>
       <c r="C381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-277.1</v>
+        <v>-245.2</v>
       </c>
       <c r="C382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>-257.1</v>
+        <v>-245.2</v>
       </c>
       <c r="C383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-247.1</v>
+        <v>-277.1</v>
       </c>
       <c r="C384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-247.1</v>
+        <v>-257.1</v>
       </c>
       <c r="C385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>-227.1</v>
+        <v>-247.1</v>
       </c>
       <c r="C386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-197.1</v>
+        <v>-247.1</v>
       </c>
       <c r="C387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-147.1</v>
+        <v>-227.1</v>
       </c>
       <c r="C388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-126.3</v>
+        <v>-197.1</v>
       </c>
       <c r="C389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-146.3</v>
+        <v>-147.1</v>
       </c>
       <c r="C390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-156.3</v>
+        <v>-126.3</v>
       </c>
       <c r="C391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024/04/28</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-176.3</v>
+        <v>-146.3</v>
       </c>
       <c r="C392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-176.3</v>
+        <v>-156.3</v>
       </c>
       <c r="C393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/04/28</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4776,183 +4776,183 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-206.3</v>
+        <v>-176.3</v>
       </c>
       <c r="C395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-206.3</v>
+        <v>-176.3</v>
       </c>
       <c r="C396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>94.2</v>
+        <v>-206.3</v>
       </c>
       <c r="C397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>64.2</v>
+        <v>-206.3</v>
       </c>
       <c r="C398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>64.2</v>
+        <v>94.2</v>
       </c>
       <c r="C399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>4.2</v>
+        <v>64.2</v>
       </c>
       <c r="C400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-35.8</v>
+        <v>64.2</v>
       </c>
       <c r="C401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-35.8</v>
+        <v>4.2</v>
       </c>
       <c r="C402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-65.8</v>
+        <v>-35.8</v>
       </c>
       <c r="C403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>-115.8</v>
+        <v>-35.8</v>
       </c>
       <c r="C404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-135.8</v>
+        <v>-65.8</v>
       </c>
       <c r="C405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>-145.8</v>
+        <v>-115.8</v>
       </c>
       <c r="C406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-197.7</v>
+        <v>-135.8</v>
       </c>
       <c r="C407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024/04/07</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-187.7</v>
+        <v>-145.8</v>
       </c>
       <c r="C408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>-199.5</v>
+        <v>-197.7</v>
       </c>
       <c r="C409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/07</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-199.5</v>
+        <v>-187.7</v>
       </c>
       <c r="C410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4963,7 +4963,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4974,62 +4974,62 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>-189.5</v>
+        <v>-199.5</v>
       </c>
       <c r="C413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>-159.5</v>
+        <v>-199.5</v>
       </c>
       <c r="C414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-139.5</v>
+        <v>-189.5</v>
       </c>
       <c r="C415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>-99.5</v>
+        <v>-159.5</v>
       </c>
       <c r="C416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>-99.5</v>
+        <v>-139.5</v>
       </c>
       <c r="C417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5040,172 +5040,172 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-89.5</v>
+        <v>-99.5</v>
       </c>
       <c r="C419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>-59.5</v>
+        <v>-99.5</v>
       </c>
       <c r="C420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-163.3</v>
+        <v>-89.5</v>
       </c>
       <c r="C421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>-205.2</v>
+        <v>-59.5</v>
       </c>
       <c r="C422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-195.2</v>
+        <v>-163.3</v>
       </c>
       <c r="C423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-197.1</v>
+        <v>-205.2</v>
       </c>
       <c r="C424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-177.1</v>
+        <v>-195.2</v>
       </c>
       <c r="C425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-157.1</v>
+        <v>-197.1</v>
       </c>
       <c r="C426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>-178.9</v>
+        <v>-177.1</v>
       </c>
       <c r="C427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-158.9</v>
+        <v>-157.1</v>
       </c>
       <c r="C428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>-314.6</v>
+        <v>-178.9</v>
       </c>
       <c r="C429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-304.6</v>
+        <v>-158.9</v>
       </c>
       <c r="C430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>-326.5</v>
+        <v>-314.6</v>
       </c>
       <c r="C431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-368.3</v>
+        <v>-304.6</v>
       </c>
       <c r="C432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-368.3</v>
+        <v>-326.5</v>
       </c>
       <c r="C433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -5216,73 +5216,73 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>-512.1</v>
+        <v>-368.3</v>
       </c>
       <c r="C435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>-502.1</v>
+        <v>-368.3</v>
       </c>
       <c r="C436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/02/27</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-462.1</v>
+        <v>-512.1</v>
       </c>
       <c r="C437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/02/26</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-462.1</v>
+        <v>-502.1</v>
       </c>
       <c r="C438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>-482.1</v>
+        <v>-462.1</v>
       </c>
       <c r="C439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>-482.1</v>
+        <v>-462.1</v>
       </c>
       <c r="C440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -5293,40 +5293,40 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024/02/18</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-504</v>
+        <v>-482.1</v>
       </c>
       <c r="C442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-464</v>
+        <v>-482.1</v>
       </c>
       <c r="C443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-464</v>
+        <v>-504</v>
       </c>
       <c r="C444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -5337,7 +5337,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/08</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -5348,7 +5348,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/07</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -5359,7 +5359,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024/02/04</t>
+          <t>2024/02/06</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -5370,7 +5370,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -5381,7 +5381,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -5392,40 +5392,40 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>-454</v>
+        <v>-464</v>
       </c>
       <c r="C451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>-394</v>
+        <v>-464</v>
       </c>
       <c r="C452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024/01/29</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>-394</v>
+        <v>-454</v>
       </c>
       <c r="C453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -5436,7 +5436,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -5447,7 +5447,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -5458,29 +5458,29 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-404</v>
+        <v>-394</v>
       </c>
       <c r="C457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-404</v>
+        <v>-394</v>
       </c>
       <c r="C458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5491,40 +5491,40 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>-414</v>
+        <v>-404</v>
       </c>
       <c r="C460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>-362.1</v>
+        <v>-404</v>
       </c>
       <c r="C461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>-362.1</v>
+        <v>-414</v>
       </c>
       <c r="C462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5535,7 +5535,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5546,7 +5546,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/15</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5557,161 +5557,161 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/12</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-342.1</v>
+        <v>-362.1</v>
       </c>
       <c r="C466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/11</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>-394.7</v>
+        <v>-362.1</v>
       </c>
       <c r="C467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>-384.7</v>
+        <v>-342.1</v>
       </c>
       <c r="C468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>-415.9</v>
+        <v>-394.7</v>
       </c>
       <c r="C469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/08</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>-385.9</v>
+        <v>-384.7</v>
       </c>
       <c r="C470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-365.9</v>
+        <v>-415.9</v>
       </c>
       <c r="C471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>-365.9</v>
+        <v>-385.9</v>
       </c>
       <c r="C472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-509.6</v>
+        <v>-365.9</v>
       </c>
       <c r="C473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-509.6</v>
+        <v>-365.9</v>
       </c>
       <c r="C474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-499.6</v>
+        <v>-509.6</v>
       </c>
       <c r="C475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-479.6</v>
+        <v>-509.6</v>
       </c>
       <c r="C476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-479.6</v>
+        <v>-499.6</v>
       </c>
       <c r="C477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-459.6</v>
+        <v>-479.6</v>
       </c>
       <c r="C478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>-459.6</v>
+        <v>-479.6</v>
       </c>
       <c r="C479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/22</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5722,95 +5722,95 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/21</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>-449.6</v>
+        <v>-459.6</v>
       </c>
       <c r="C481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/20</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>-449.6</v>
+        <v>-459.6</v>
       </c>
       <c r="C482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/19</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>-397.7</v>
+        <v>-449.6</v>
       </c>
       <c r="C483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/18</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>-327.7</v>
+        <v>-449.6</v>
       </c>
       <c r="C484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>-327.7</v>
+        <v>-397.7</v>
       </c>
       <c r="C485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/14</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-285.9</v>
+        <v>-327.7</v>
       </c>
       <c r="C486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>-315.9</v>
+        <v>-327.7</v>
       </c>
       <c r="C487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-335.9</v>
+        <v>-285.9</v>
       </c>
       <c r="C488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/11</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5821,73 +5821,73 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/08</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>-345.9</v>
+        <v>-335.9</v>
       </c>
       <c r="C490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2023/12/07</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>-345.9</v>
+        <v>-315.9</v>
       </c>
       <c r="C491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2023/12/06</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-325.9</v>
+        <v>-345.9</v>
       </c>
       <c r="C492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2023/12/05</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>-315.9</v>
+        <v>-345.9</v>
       </c>
       <c r="C493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/04</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-264</v>
+        <v>-325.9</v>
       </c>
       <c r="C494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>-264</v>
+        <v>-315.9</v>
       </c>
       <c r="C495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5898,7 +5898,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/11/29</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5909,40 +5909,40 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/11/28</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>-294</v>
+        <v>-264</v>
       </c>
       <c r="C498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2023/11/27</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>-314</v>
+        <v>-264</v>
       </c>
       <c r="C499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>-314</v>
+        <v>-294</v>
       </c>
       <c r="C500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5953,51 +5953,51 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>-262.1</v>
+        <v>-314</v>
       </c>
       <c r="C502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>-262.1</v>
+        <v>-314</v>
       </c>
       <c r="C503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>-210.2</v>
+        <v>-262.1</v>
       </c>
       <c r="C504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>-210.2</v>
+        <v>-262.1</v>
       </c>
       <c r="C505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -6008,7 +6008,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -6019,293 +6019,293 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-136.5</v>
+        <v>-210.2</v>
       </c>
       <c r="C508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>-156.5</v>
+        <v>-210.2</v>
       </c>
       <c r="C509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>-186.5</v>
+        <v>-136.5</v>
       </c>
       <c r="C510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>-206.5</v>
+        <v>-156.5</v>
       </c>
       <c r="C511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>-144.6</v>
+        <v>-186.5</v>
       </c>
       <c r="C512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>-144.6</v>
+        <v>-206.5</v>
       </c>
       <c r="C513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>-204.6</v>
+        <v>-144.6</v>
       </c>
       <c r="C514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2023/11/01</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>-164.6</v>
+        <v>-144.6</v>
       </c>
       <c r="C515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/02</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>-164.6</v>
+        <v>-204.6</v>
       </c>
       <c r="C516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/01</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-124.6</v>
+        <v>-164.6</v>
       </c>
       <c r="C517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/10/31</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-154.6</v>
+        <v>-164.6</v>
       </c>
       <c r="C518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/10/30</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-174.6</v>
+        <v>-124.6</v>
       </c>
       <c r="C519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/10/27</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-204.6</v>
+        <v>-154.6</v>
       </c>
       <c r="C520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/10/26</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>-234.6</v>
+        <v>-174.6</v>
       </c>
       <c r="C521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/10/25</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>-234.6</v>
+        <v>-204.6</v>
       </c>
       <c r="C522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/10/24</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>-204.6</v>
+        <v>-234.6</v>
       </c>
       <c r="C523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/10/23</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>-204.6</v>
+        <v>-234.6</v>
       </c>
       <c r="C524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/10/20</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>-184.6</v>
+        <v>-204.6</v>
       </c>
       <c r="C525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/10/19</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>-164.6</v>
+        <v>-204.6</v>
       </c>
       <c r="C526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/10/18</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>-288.3</v>
+        <v>-184.6</v>
       </c>
       <c r="C527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/10/17</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>-308.3</v>
+        <v>-164.6</v>
       </c>
       <c r="C528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>-298.3</v>
+        <v>-288.3</v>
       </c>
       <c r="C529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>-288.3</v>
+        <v>-308.3</v>
       </c>
       <c r="C530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>-288.3</v>
+        <v>-298.3</v>
       </c>
       <c r="C531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/10/11</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>-258.3</v>
+        <v>-288.3</v>
       </c>
       <c r="C532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023/10/08</t>
+          <t>2023/10/10</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>-258.3</v>
+        <v>-288.3</v>
       </c>
       <c r="C533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023/10/07</t>
+          <t>2023/10/09</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -6316,29 +6316,29 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023/09/28</t>
+          <t>2023/10/08</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>-298.3</v>
+        <v>-258.3</v>
       </c>
       <c r="C535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023/09/27</t>
+          <t>2023/10/07</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>-298.3</v>
+        <v>-258.3</v>
       </c>
       <c r="C536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023/09/26</t>
+          <t>2023/09/28</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -6349,40 +6349,40 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2023/09/25</t>
+          <t>2023/09/27</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>-228.3</v>
+        <v>-298.3</v>
       </c>
       <c r="C538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/09/26</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>-80.8</v>
+        <v>-298.3</v>
       </c>
       <c r="C539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/09/25</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>-80.8</v>
+        <v>-228.3</v>
       </c>
       <c r="C540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/09/22</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -6393,51 +6393,51 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2023/09/19</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>-90.8</v>
+        <v>-80.8</v>
       </c>
       <c r="C542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>2023/09/18</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>-110.8</v>
+        <v>-80.8</v>
       </c>
       <c r="C543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/09/19</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>-108.9</v>
+        <v>-90.8</v>
       </c>
       <c r="C544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/09/18</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>-108.9</v>
+        <v>-110.8</v>
       </c>
       <c r="C545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2023/09/13</t>
+          <t>2023/09/15</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -6448,7 +6448,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2023/09/14</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -6459,7 +6459,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2023/09/11</t>
+          <t>2023/09/13</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -6470,18 +6470,18 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/09/12</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>-118.9</v>
+        <v>-108.9</v>
       </c>
       <c r="C549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2023/09/11</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -6492,150 +6492,150 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2023/09/06</t>
+          <t>2023/09/08</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>46.7</v>
+        <v>-118.9</v>
       </c>
       <c r="C551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>2023/09/05</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>46.7</v>
+        <v>-108.9</v>
       </c>
       <c r="C552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>2023/09/04</t>
+          <t>2023/09/06</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>26.7</v>
+        <v>46.7</v>
       </c>
       <c r="C553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>2023/09/01</t>
+          <t>2023/09/05</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>6.7</v>
+        <v>46.7</v>
       </c>
       <c r="C554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>2023/08/31</t>
+          <t>2023/09/04</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>-23.3</v>
+        <v>26.7</v>
       </c>
       <c r="C555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>2023/08/30</t>
+          <t>2023/09/01</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>-53.3</v>
+        <v>6.7</v>
       </c>
       <c r="C556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>2023/08/29</t>
+          <t>2023/08/31</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>-53.3</v>
+        <v>-23.3</v>
       </c>
       <c r="C557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2023/08/30</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>-43.3</v>
+        <v>-53.3</v>
       </c>
       <c r="C558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>2023/08/25</t>
+          <t>2023/08/29</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>-43.3</v>
+        <v>-53.3</v>
       </c>
       <c r="C559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>2023/08/24</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>-13.3</v>
+        <v>-43.3</v>
       </c>
       <c r="C560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>2023/08/23</t>
+          <t>2023/08/25</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>-13.3</v>
+        <v>-43.3</v>
       </c>
       <c r="C561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>2023/08/22</t>
+          <t>2023/08/24</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>-43.3</v>
+        <v>-13.3</v>
       </c>
       <c r="C562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>2023/08/21</t>
+          <t>2023/08/23</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>-43.3</v>
+        <v>-13.3</v>
       </c>
       <c r="C563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/08/22</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -6646,7 +6646,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>2023/08/17</t>
+          <t>2023/08/21</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -6657,29 +6657,29 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2023/08/18</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>-147.1</v>
+        <v>-43.3</v>
       </c>
       <c r="C566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2023/08/15</t>
+          <t>2023/08/17</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>-147.1</v>
+        <v>-43.3</v>
       </c>
       <c r="C567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>2023/08/14</t>
+          <t>2023/08/16</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6690,7 +6690,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>2023/08/11</t>
+          <t>2023/08/15</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6701,62 +6701,62 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2023/08/14</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>-127.1</v>
+        <v>-147.1</v>
       </c>
       <c r="C570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>2023/08/09</t>
+          <t>2023/08/11</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>-107.1</v>
+        <v>-147.1</v>
       </c>
       <c r="C571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>2023/08/08</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>-55.2</v>
+        <v>-127.1</v>
       </c>
       <c r="C572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>2023/08/07</t>
+          <t>2023/08/09</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>-55.2</v>
+        <v>-107.1</v>
       </c>
       <c r="C573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/08/08</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>-65.2</v>
+        <v>-55.2</v>
       </c>
       <c r="C574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>2023/08/03</t>
+          <t>2023/08/07</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6767,29 +6767,29 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>2023/08/02</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>-35.2</v>
+        <v>-65.2</v>
       </c>
       <c r="C576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2023/08/01</t>
+          <t>2023/08/03</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>-35.2</v>
+        <v>-55.2</v>
       </c>
       <c r="C577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2023/07/31</t>
+          <t>2023/08/02</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6800,7 +6800,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2023/07/28</t>
+          <t>2023/08/01</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -6811,106 +6811,106 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>2023/07/27</t>
+          <t>2023/07/31</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>-55.2</v>
+        <v>-35.2</v>
       </c>
       <c r="C580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>2023/07/26</t>
+          <t>2023/07/28</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>-55.2</v>
+        <v>-35.2</v>
       </c>
       <c r="C581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>2023/07/25</t>
+          <t>2023/07/27</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>-95.2</v>
+        <v>-55.2</v>
       </c>
       <c r="C582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>2023/07/24</t>
+          <t>2023/07/26</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>-43.3</v>
+        <v>-55.2</v>
       </c>
       <c r="C583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>2023/07/21</t>
+          <t>2023/07/25</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>50.5</v>
+        <v>-95.2</v>
       </c>
       <c r="C584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>2023/07/20</t>
+          <t>2023/07/24</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>50.5</v>
+        <v>-43.3</v>
       </c>
       <c r="C585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>2023/07/19</t>
+          <t>2023/07/21</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.5</v>
+        <v>50.5</v>
       </c>
       <c r="C586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>2023/07/18</t>
+          <t>2023/07/20</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0.5</v>
+        <v>50.5</v>
       </c>
       <c r="C587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>2023/07/17</t>
+          <t>2023/07/19</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>-9.5</v>
+        <v>0.5</v>
       </c>
       <c r="C588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/07/18</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6921,95 +6921,95 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>2023/07/13</t>
+          <t>2023/07/17</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>53.5</v>
+        <v>-9.5</v>
       </c>
       <c r="C590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>2023/07/12</t>
+          <t>2023/07/14</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>43.5</v>
+        <v>0.5</v>
       </c>
       <c r="C591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>2023/07/11</t>
+          <t>2023/07/13</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>3.5</v>
+        <v>53.5</v>
       </c>
       <c r="C592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>2023/07/10</t>
+          <t>2023/07/12</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>66.09999999999999</v>
+        <v>43.5</v>
       </c>
       <c r="C593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>2023/07/07</t>
+          <t>2023/07/11</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>96.09999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="C594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>2023/07/06</t>
+          <t>2023/07/10</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>96.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>2023/07/05</t>
+          <t>2023/07/07</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>76.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>2023/07/04</t>
+          <t>2023/07/06</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>76.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>2023/07/03</t>
+          <t>2023/07/05</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -7020,51 +7020,51 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/07/04</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>96.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2023/06/29</t>
+          <t>2023/07/03</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>66.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2023/06/28</t>
+          <t>2023/06/30</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>14.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>2023/06/27</t>
+          <t>2023/06/29</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>14.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>2023/06/26</t>
+          <t>2023/06/28</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -7075,73 +7075,73 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>2023/06/25</t>
+          <t>2023/06/27</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>66.09999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="C604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>2023/06/21</t>
+          <t>2023/06/26</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>116.1</v>
+        <v>14.2</v>
       </c>
       <c r="C605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>2023/06/20</t>
+          <t>2023/06/25</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>116.1</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>2023/06/19</t>
+          <t>2023/06/21</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>76.09999999999999</v>
+        <v>116.1</v>
       </c>
       <c r="C607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>2023/06/16</t>
+          <t>2023/06/20</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>169.8</v>
+        <v>116.1</v>
       </c>
       <c r="C608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2023/06/15</t>
+          <t>2023/06/19</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>169.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>2023/06/14</t>
+          <t>2023/06/16</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -7152,40 +7152,40 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>2023/06/13</t>
+          <t>2023/06/15</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>129.8</v>
+        <v>169.8</v>
       </c>
       <c r="C611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2023/06/12</t>
+          <t>2023/06/14</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>119.8</v>
+        <v>169.8</v>
       </c>
       <c r="C612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/06/13</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>119.8</v>
+        <v>129.8</v>
       </c>
       <c r="C613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2023/06/08</t>
+          <t>2023/06/12</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -7196,7 +7196,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -7207,161 +7207,161 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2023/06/06</t>
+          <t>2023/06/08</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>99.09999999999999</v>
+        <v>119.8</v>
       </c>
       <c r="C616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>2023/06/05</t>
+          <t>2023/06/07</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>49.1</v>
+        <v>119.8</v>
       </c>
       <c r="C617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>2023/06/02</t>
+          <t>2023/06/06</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>18</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>2023/06/01</t>
+          <t>2023/06/05</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>-53.2</v>
+        <v>49.1</v>
       </c>
       <c r="C619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>2023/05/31</t>
+          <t>2023/06/02</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>-53.2</v>
+        <v>18</v>
       </c>
       <c r="C620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>2023/05/30</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>-23.2</v>
+        <v>-53.2</v>
       </c>
       <c r="C621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>2023/05/29</t>
+          <t>2023/05/31</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>-13.2</v>
+        <v>-53.2</v>
       </c>
       <c r="C622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>2023/05/26</t>
+          <t>2023/05/30</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>26.8</v>
+        <v>-23.2</v>
       </c>
       <c r="C623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>2023/05/25</t>
+          <t>2023/05/29</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>86.8</v>
+        <v>-13.2</v>
       </c>
       <c r="C624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2023/05/24</t>
+          <t>2023/05/26</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>146.8</v>
+        <v>26.8</v>
       </c>
       <c r="C625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>2023/05/23</t>
+          <t>2023/05/25</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>178</v>
+        <v>86.8</v>
       </c>
       <c r="C626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>2023/05/22</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>178</v>
+        <v>146.8</v>
       </c>
       <c r="C627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>2023/05/19</t>
+          <t>2023/05/23</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>2023/05/18</t>
+          <t>2023/05/22</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>2023/05/17</t>
+          <t>2023/05/19</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -7372,73 +7372,73 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2023/05/18</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>2023/05/15</t>
+          <t>2023/05/17</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>2023/05/12</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>2023/05/11</t>
+          <t>2023/05/15</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>2023/05/10</t>
+          <t>2023/05/12</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>2023/05/09</t>
+          <t>2023/05/11</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>2023/05/08</t>
+          <t>2023/05/10</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -7449,161 +7449,161 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>2023/05/06</t>
+          <t>2023/05/09</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>166.1</v>
+        <v>218</v>
       </c>
       <c r="C638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>2023/05/05</t>
+          <t>2023/05/08</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>166.1</v>
+        <v>218</v>
       </c>
       <c r="C639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>2023/05/04</t>
+          <t>2023/05/06</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>112.3</v>
+        <v>166.1</v>
       </c>
       <c r="C640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>2023/04/28</t>
+          <t>2023/05/05</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>182.3</v>
+        <v>166.1</v>
       </c>
       <c r="C641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>2023/04/27</t>
+          <t>2023/05/04</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>182.3</v>
+        <v>112.3</v>
       </c>
       <c r="C642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>2023/04/26</t>
+          <t>2023/04/28</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>160.5</v>
+        <v>182.3</v>
       </c>
       <c r="C643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>2023/04/25</t>
+          <t>2023/04/27</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>200.5</v>
+        <v>182.3</v>
       </c>
       <c r="C644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>2023/04/24</t>
+          <t>2023/04/26</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>208.6</v>
+        <v>160.5</v>
       </c>
       <c r="C645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>2023/04/23</t>
+          <t>2023/04/25</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>156.7</v>
+        <v>200.5</v>
       </c>
       <c r="C646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/04/24</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>176.7</v>
+        <v>208.6</v>
       </c>
       <c r="C647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>2023/04/20</t>
+          <t>2023/04/23</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>206.7</v>
+        <v>156.7</v>
       </c>
       <c r="C648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>2023/04/19</t>
+          <t>2023/04/21</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>81.09999999999999</v>
+        <v>176.7</v>
       </c>
       <c r="C649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>2023/04/18</t>
+          <t>2023/04/20</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>81.09999999999999</v>
+        <v>206.7</v>
       </c>
       <c r="C650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>2023/04/17</t>
+          <t>2023/04/19</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>51.1</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>2023/04/14</t>
+          <t>2023/04/18</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -7614,216 +7614,216 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2023/04/17</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>81.09999999999999</v>
+        <v>51.1</v>
       </c>
       <c r="C653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>2023/04/12</t>
+          <t>2023/04/14</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>91.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2023/04/11</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>61.1</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>2023/04/10</t>
+          <t>2023/04/12</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>-42.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>2023/04/07</t>
+          <t>2023/04/11</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>47.3</v>
+        <v>61.1</v>
       </c>
       <c r="C657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>2023/04/06</t>
+          <t>2023/04/10</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>67.3</v>
+        <v>-42.7</v>
       </c>
       <c r="C658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>2023/04/04</t>
+          <t>2023/04/07</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>-6.5</v>
+        <v>47.3</v>
       </c>
       <c r="C659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>2023/04/03</t>
+          <t>2023/04/06</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>33.5</v>
+        <v>67.3</v>
       </c>
       <c r="C660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>2023/03/31</t>
+          <t>2023/04/04</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>83.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>2023/03/30</t>
+          <t>2023/04/03</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>-20.2</v>
+        <v>33.5</v>
       </c>
       <c r="C662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>2023/03/29</t>
+          <t>2023/03/31</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>-20.2</v>
+        <v>83.5</v>
       </c>
       <c r="C663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>2023/03/28</t>
+          <t>2023/03/30</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>-0.2</v>
+        <v>-20.2</v>
       </c>
       <c r="C664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>2023/03/27</t>
+          <t>2023/03/29</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>-0.2</v>
+        <v>-20.2</v>
       </c>
       <c r="C665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>2023/03/24</t>
+          <t>2023/03/28</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>-52.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>2023/03/23</t>
+          <t>2023/03/27</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>-52.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>2023/03/22</t>
+          <t>2023/03/24</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>-22.1</v>
+        <v>-52.1</v>
       </c>
       <c r="C668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>2023/03/21</t>
+          <t>2023/03/23</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>-74</v>
+        <v>-52.1</v>
       </c>
       <c r="C669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>2023/03/20</t>
+          <t>2023/03/22</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>-64</v>
+        <v>-22.1</v>
       </c>
       <c r="C670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>2023/03/17</t>
+          <t>2023/03/21</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>-44</v>
+        <v>-74</v>
       </c>
       <c r="C671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>2023/03/16</t>
+          <t>2023/03/20</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -7834,51 +7834,51 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>2023/03/15</t>
+          <t>2023/03/17</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>-65.90000000000001</v>
+        <v>-44</v>
       </c>
       <c r="C673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>2023/03/14</t>
+          <t>2023/03/16</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>-25.9</v>
+        <v>-64</v>
       </c>
       <c r="C674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>2023/03/13</t>
+          <t>2023/03/15</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>-15.9</v>
+        <v>-65.90000000000001</v>
       </c>
       <c r="C675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>2023/03/10</t>
+          <t>2023/03/14</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>-15.9</v>
+        <v>-25.9</v>
       </c>
       <c r="C676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>2023/03/09</t>
+          <t>2023/03/13</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -7889,7 +7889,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>2023/03/08</t>
+          <t>2023/03/10</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7900,7 +7900,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>2023/03/07</t>
+          <t>2023/03/09</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -7911,7 +7911,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>2023/03/06</t>
+          <t>2023/03/08</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -7922,29 +7922,29 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>2023/03/03</t>
+          <t>2023/03/07</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>24.1</v>
+        <v>-15.9</v>
       </c>
       <c r="C681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>2023/03/02</t>
+          <t>2023/03/06</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>24.1</v>
+        <v>-15.9</v>
       </c>
       <c r="C682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>2023/03/01</t>
+          <t>2023/03/03</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -7955,29 +7955,29 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>2023/02/28</t>
+          <t>2023/03/02</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>117.9</v>
+        <v>24.1</v>
       </c>
       <c r="C684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>2023/03/01</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>127.9</v>
+        <v>24.1</v>
       </c>
       <c r="C685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>2023/02/24</t>
+          <t>2023/02/28</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -7988,260 +7988,260 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>2023/02/23</t>
+          <t>2023/02/27</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>117.9</v>
+        <v>127.9</v>
       </c>
       <c r="C687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>2023/02/22</t>
+          <t>2023/02/24</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>119.8</v>
+        <v>117.9</v>
       </c>
       <c r="C688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>2023/02/21</t>
+          <t>2023/02/23</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>129.8</v>
+        <v>117.9</v>
       </c>
       <c r="C689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>2023/02/20</t>
+          <t>2023/02/22</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>109.8</v>
+        <v>119.8</v>
       </c>
       <c r="C690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>2023/02/17</t>
+          <t>2023/02/21</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>109.8</v>
+        <v>129.8</v>
       </c>
       <c r="C691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2023/02/16</t>
+          <t>2023/02/20</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>79.8</v>
+        <v>109.8</v>
       </c>
       <c r="C692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2023/02/15</t>
+          <t>2023/02/17</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>59.8</v>
+        <v>109.8</v>
       </c>
       <c r="C693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2023/02/14</t>
+          <t>2023/02/16</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>59.8</v>
+        <v>79.8</v>
       </c>
       <c r="C694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2023/02/13</t>
+          <t>2023/02/15</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>49.8</v>
+        <v>59.8</v>
       </c>
       <c r="C695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>2023/02/10</t>
+          <t>2023/02/14</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>89.8</v>
+        <v>59.8</v>
       </c>
       <c r="C696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2023/02/09</t>
+          <t>2023/02/13</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>89.8</v>
+        <v>49.8</v>
       </c>
       <c r="C697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>2023/02/08</t>
+          <t>2023/02/10</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>79.8</v>
+        <v>89.8</v>
       </c>
       <c r="C698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>2023/02/07</t>
+          <t>2023/02/09</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>79.8</v>
+        <v>89.8</v>
       </c>
       <c r="C699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>2023/02/06</t>
+          <t>2023/02/08</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>69.8</v>
+        <v>79.8</v>
       </c>
       <c r="C700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>2023/02/03</t>
+          <t>2023/02/07</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>109.8</v>
+        <v>79.8</v>
       </c>
       <c r="C701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>2023/02/02</t>
+          <t>2023/02/06</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>109.8</v>
+        <v>69.8</v>
       </c>
       <c r="C702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>2023/02/01</t>
+          <t>2023/02/03</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>77.90000000000001</v>
+        <v>109.8</v>
       </c>
       <c r="C703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>2023/01/31</t>
+          <t>2023/02/02</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>77.90000000000001</v>
+        <v>109.8</v>
       </c>
       <c r="C704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>2023/01/30</t>
+          <t>2023/02/01</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>87.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>2023/01/29</t>
+          <t>2023/01/31</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>-24</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>2023/01/28</t>
+          <t>2023/01/30</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>-24</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>2023/01/20</t>
+          <t>2023/01/29</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="C708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>2023/01/19</t>
+          <t>2023/01/28</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="C709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>2023/01/18</t>
+          <t>2023/01/20</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -8252,7 +8252,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>2023/01/17</t>
+          <t>2023/01/19</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -8263,7 +8263,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>2023/01/16</t>
+          <t>2023/01/18</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -8274,7 +8274,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>2023/01/13</t>
+          <t>2023/01/17</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -8285,7 +8285,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>2023/01/12</t>
+          <t>2023/01/16</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -8296,51 +8296,51 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>2023/01/11</t>
+          <t>2023/01/13</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>-44</v>
+        <v>-14</v>
       </c>
       <c r="C715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>2023/01/10</t>
+          <t>2023/01/12</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>-95.90000000000001</v>
+        <v>-14</v>
       </c>
       <c r="C716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>2023/01/09</t>
+          <t>2023/01/11</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>-65.90000000000001</v>
+        <v>-44</v>
       </c>
       <c r="C717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>2023/01/06</t>
+          <t>2023/01/10</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>-65.90000000000001</v>
+        <v>-95.90000000000001</v>
       </c>
       <c r="C718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>2023/01/05</t>
+          <t>2023/01/09</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -8351,7 +8351,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>2023/01/04</t>
+          <t>2023/01/06</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -8362,13 +8362,35 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
+          <t>2023/01/05</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-65.90000000000001</v>
+      </c>
+      <c r="C721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2023/01/04</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>-65.90000000000001</v>
+      </c>
+      <c r="C722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>2023/01/03</t>
         </is>
       </c>
-      <c r="B721" t="n">
+      <c r="B723" t="n">
         <v>-25.9</v>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
